--- a/SHEET_DSA_TOP_QUESTION/DSA_Sheet.xlsx
+++ b/SHEET_DSA_TOP_QUESTION/DSA_Sheet.xlsx
@@ -388,12 +388,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -413,7 +419,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -721,7 +727,7 @@
   <dimension ref="A1:C112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
